--- a/Data/EC/NIT-9007862108.xlsx
+++ b/Data/EC/NIT-9007862108.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3D8DB2-F961-494F-9D4B-90105BB04464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B580FA6B-91DA-4082-8306-BAFF12106D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4D78A722-12CA-408B-9134-88F9B7AEFCE7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52B67211-F3EC-4B08-9CC9-5D98177F5A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,51 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1050947184</t>
+  </si>
+  <si>
+    <t>JULIO ENRIQUE CASTELLAR RIOS</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
     <t>1128047749</t>
   </si>
   <si>
@@ -74,289 +119,244 @@
     <t>1708</t>
   </si>
   <si>
-    <t>1050947184</t>
-  </si>
-  <si>
-    <t>JULIO ENRIQUE CASTELLAR RIOS</t>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1050953404</t>
+  </si>
+  <si>
+    <t>JOSE LUIS CARRILLO MELEDEZ</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>17904861</t>
+  </si>
+  <si>
+    <t>MARLON ALTAMAR BERMUDEZ</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
   </si>
   <si>
     <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1050953404</t>
-  </si>
-  <si>
-    <t>JOSE LUIS CARRILLO MELEDEZ</t>
-  </si>
-  <si>
-    <t>17904861</t>
-  </si>
-  <si>
-    <t>MARLON ALTAMAR BERMUDEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -455,7 +455,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -468,9 +470,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -670,23 +670,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,10 +714,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,7 +770,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9314748-E848-D596-9AC0-FDA3C13ADA87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1550239F-2242-5A96-DCE7-FCA490E73C3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1121,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440D9F8F-81DB-4BC6-8D47-FC04E9DBDFA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F8362D-A94B-44BB-89C3-88130FDE6C02}">
   <dimension ref="B2:J159"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1299,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1967</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1313,16 +1313,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1336,16 +1336,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1359,16 +1359,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1382,16 +1382,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1405,16 +1405,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1428,16 +1428,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1451,16 +1451,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1474,16 +1474,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1497,16 +1497,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1520,16 +1520,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1543,16 +1543,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1566,16 +1566,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1589,16 +1589,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>1967</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1612,16 +1612,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1635,16 +1635,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1658,16 +1658,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1681,16 +1681,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1704,16 +1704,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1727,16 +1727,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1750,16 +1750,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1773,16 +1773,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1796,16 +1796,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1819,13 +1819,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1842,16 +1842,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1865,13 +1865,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1888,16 +1888,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1911,13 +1911,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1934,16 +1934,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1957,13 +1957,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1980,16 +1980,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -2003,13 +2003,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -2026,13 +2026,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -2049,13 +2049,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2072,13 +2072,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2095,13 +2095,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2118,13 +2118,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2141,13 +2141,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2164,13 +2164,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2187,13 +2187,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2210,13 +2210,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2233,13 +2233,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2256,13 +2256,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2279,13 +2279,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2302,13 +2302,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2325,13 +2325,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2348,13 +2348,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2371,13 +2371,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2394,13 +2394,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2417,13 +2417,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2440,13 +2440,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2463,13 +2463,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2486,13 +2486,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2509,13 +2509,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2532,13 +2532,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2555,13 +2555,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2578,13 +2578,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2601,13 +2601,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2624,13 +2624,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2647,13 +2647,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2670,13 +2670,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2693,13 +2693,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2716,13 +2716,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2739,13 +2739,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2762,13 +2762,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2785,16 +2785,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F81" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2808,16 +2808,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F82" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2831,16 +2831,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F83" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2854,16 +2854,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F84" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2877,16 +2877,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F85" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2900,16 +2900,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F86" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2923,16 +2923,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F87" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -2946,16 +2946,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F88" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2969,16 +2969,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F89" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -2992,16 +2992,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F90" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -3015,16 +3015,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F91" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -3038,16 +3038,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F92" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -3061,16 +3061,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F93" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3084,16 +3084,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F94" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3107,16 +3107,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F95" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3130,16 +3130,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F96" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3153,16 +3153,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F97" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3176,16 +3176,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F98" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3199,16 +3199,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F99" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3222,16 +3222,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F100" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3245,16 +3245,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F101" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3268,16 +3268,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F102" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3291,16 +3291,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F103" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3314,16 +3314,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F104" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3337,16 +3337,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="F105" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3360,16 +3360,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="F106" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3383,16 +3383,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F107" s="18">
-        <v>23958</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3406,13 +3406,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3429,13 +3429,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3452,13 +3452,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F110" s="18">
         <v>31249</v>
@@ -3475,13 +3475,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3498,13 +3498,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3521,13 +3521,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3544,13 +3544,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3567,13 +3567,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3590,13 +3590,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
@@ -3613,13 +3613,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3636,13 +3636,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3659,13 +3659,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3682,19 +3682,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>1211</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3705,13 +3705,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3728,13 +3728,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
@@ -3751,13 +3751,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
@@ -3774,13 +3774,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
@@ -3797,13 +3797,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
@@ -3820,13 +3820,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F126" s="18">
         <v>31249</v>
@@ -3843,13 +3843,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3866,13 +3866,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F128" s="18">
         <v>31249</v>
@@ -3889,13 +3889,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3912,16 +3912,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>23958</v>
       </c>
       <c r="G130" s="18">
         <v>781242</v>
@@ -3935,13 +3935,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
@@ -3958,13 +3958,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -3981,13 +3981,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -4004,13 +4004,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
@@ -4027,13 +4027,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -4050,13 +4050,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -4073,13 +4073,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4096,13 +4096,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4119,13 +4119,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4142,13 +4142,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4165,13 +4165,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4188,13 +4188,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4211,13 +4211,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4234,13 +4234,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4257,13 +4257,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4280,13 +4280,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4303,13 +4303,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4326,13 +4326,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4349,13 +4349,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4372,13 +4372,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4395,13 +4395,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4418,13 +4418,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4441,19 +4441,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D153" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E153" s="22" t="s">
-        <v>42</v>
-      </c>
       <c r="F153" s="24">
-        <v>1211</v>
+        <v>31249</v>
       </c>
       <c r="G153" s="24">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="25"/>
       <c r="I153" s="25"/>
